--- a/data/supervision.xlsx
+++ b/data/supervision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_F25DC773A252ABDACC1048C0319850CC5BDE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{94385BE1-7E33-48E6-A654-06298B4407E4}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC1048C0319850CC5BDE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83D26764-45E6-430D-8504-B01270AC8941}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>when</t>
   </si>
@@ -99,10 +99,13 @@
     <t>Jan  2020 - Jul 2020</t>
   </si>
   <si>
-    <t>Project: "Lipid extraction and swimbladder morphology in mesopelagic fish"</t>
-  </si>
-  <si>
     <t>Project: "Exploring the emergent niche of Greater argentine (Argentina silus) along gradients of topography and light"</t>
+  </si>
+  <si>
+    <t>Project: "Developing methods for lipid extraction in mesopelagic fish"</t>
+  </si>
+  <si>
+    <t>order</t>
   </si>
 </sst>
 </file>
@@ -138,9 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -423,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,11 +441,12 @@
     <col min="1" max="2" width="25.7109375" customWidth="1"/>
     <col min="3" max="3" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="106.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="106.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -451,14 +459,17 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -471,14 +482,17 @@
       <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
+      <c r="E2" s="3">
+        <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -491,14 +505,17 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -511,10 +528,13 @@
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>22</v>
+      <c r="E4" s="3">
+        <v>2</v>
       </c>
       <c r="F4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
         <v>12</v>
       </c>
     </row>

--- a/data/supervision.xlsx
+++ b/data/supervision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="11_F25DC773A252ABDACC1048C0319850CC5BDE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{83D26764-45E6-430D-8504-B01270AC8941}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC1048C0319850CC5BDE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5FDAE91-0FCB-4BF9-B73B-D951586C6021}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>Sep 2019 - Apr 2020</t>
   </si>
   <si>
-    <t>Andeol Bourgouin</t>
-  </si>
-  <si>
     <t>Aug 2019 - Jul 2021</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>order</t>
+  </si>
+  <si>
+    <t>Andéol Bourgouin</t>
   </si>
 </sst>
 </file>
@@ -433,7 +433,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -460,13 +460,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -474,10 +474,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>6</v>
@@ -486,10 +486,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -497,45 +497,45 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="3">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/data/supervision.xlsx
+++ b/data/supervision.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universityofbergen-my.sharepoint.com/personal/tom_langbehn_uib_no/Documents/TomLangbehn_CV/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="107" documentId="11_F25DC773A252ABDACC1048C0319850CC5BDE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F5FDAE91-0FCB-4BF9-B73B-D951586C6021}"/>
+  <xr:revisionPtr revIDLastSave="136" documentId="11_F25DC773A252ABDACC1048C0319850CC5BDE58EF" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{84A19138-770F-4CF2-9DD2-C1ECCD7BFA5D}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>when</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Andéol Bourgouin</t>
+  </si>
+  <si>
+    <t>Role: co-supervisor</t>
+  </si>
+  <si>
+    <t>Role: main supervisor</t>
   </si>
 </sst>
 </file>
@@ -430,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,49 +499,66 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="3">
-        <v>3</v>
-      </c>
       <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D5" s="1"/>
+      <c r="E5" s="3"/>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E6" s="3">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
